--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.3569997395889524</v>
+        <v>1.3569997047951259</v>
       </c>
       <c r="C2">
-        <v>2.8489212540499143</v>
+        <v>2.8489212240909514</v>
       </c>
       <c r="D2">
-        <v>16.256866176109</v>
+        <v>16.256866069090506</v>
       </c>
       <c r="E2">
-        <v>9.7886674618476359</v>
+        <v>9.7886674035532923</v>
       </c>
       <c r="F2">
-        <v>11.955497589138115</v>
+        <v>11.955497529666033</v>
       </c>
       <c r="G2">
-        <v>8.1063764950483268</v>
+        <v>8.1063764545270498</v>
       </c>
       <c r="H2">
-        <v>15.059806484031762</v>
+        <v>15.059806351623617</v>
       </c>
       <c r="I2">
-        <v>3.1533997963331779</v>
+        <v>3.1533998126283835</v>
       </c>
       <c r="J2">
-        <v>13.552372325537467</v>
+        <v>13.552372257113552</v>
       </c>
       <c r="K2">
-        <v>13.641912610494231</v>
+        <v>13.641912450802314</v>
       </c>
       <c r="L2">
-        <v>1.5816344454814715</v>
+        <v>1.5816344260051971</v>
       </c>
       <c r="N2">
-        <v>0.1729215495549658</v>
+        <v>0.17292155090668623</v>
       </c>
       <c r="O2">
-        <v>5.735384734894863</v>
+        <v>5.7353847009518066</v>
       </c>
       <c r="P2">
-        <v>6.9866917383271723</v>
+        <v>6.9866916146251654</v>
       </c>
       <c r="Q2">
-        <v>3.8119885891124916</v>
+        <v>3.8119885448775399</v>
       </c>
       <c r="S2">
-        <v>8.7625884796968379</v>
+        <v>8.7625866212507884</v>
       </c>
       <c r="V2">
-        <v>16.568618973555903</v>
+        <v>16.568618884800468</v>
       </c>
       <c r="W2">
-        <v>4.3849352273503488</v>
+        <v>4.3849352129762424</v>
       </c>
       <c r="X2">
-        <v>1.1258010500256392</v>
+        <v>1.1258010049367086</v>
       </c>
       <c r="AA2">
-        <v>4.1226842647298012</v>
+        <v>4.1226842706440152</v>
       </c>
       <c r="AB2">
-        <v>0.47141638857305396</v>
+        <v>0.47141636947266113</v>
       </c>
       <c r="AC2">
-        <v>7.1589613429531749</v>
+        <v>7.1589613072320688</v>
       </c>
       <c r="AD2">
-        <v>3.9733415961913421</v>
+        <v>3.9733415532450955</v>
       </c>
       <c r="AE2">
-        <v>6.4865628911207223</v>
+        <v>6.4865628008088887</v>
       </c>
       <c r="AF2">
-        <v>8.5434458292884852</v>
+        <v>8.5434458267282309</v>
       </c>
       <c r="AG2">
-        <v>9.8873675671113865</v>
+        <v>9.8873676885386779</v>
       </c>
       <c r="AH2">
-        <v>1.8336867795098388</v>
+        <v>1.8336867286747425</v>
       </c>
       <c r="AI2">
-        <v>14.01439026733107</v>
+        <v>14.014390308007316</v>
       </c>
       <c r="AJ2">
-        <v>12.441409633092357</v>
+        <v>12.441409514609159</v>
       </c>
       <c r="AK2">
-        <v>2.0553556199843017</v>
+        <v>2.0553556191835112</v>
       </c>
       <c r="AL2">
-        <v>2.7531598838350848</v>
+        <v>2.7531598902683401</v>
       </c>
       <c r="AM2">
-        <v>0.15343052731712867</v>
+        <v>0.15343052869178794</v>
       </c>
       <c r="AN2">
-        <v>3.5924246315346346</v>
+        <v>3.592424634487986</v>
       </c>
       <c r="AO2">
-        <v>5.3934205218312057</v>
+        <v>5.3934204958644241</v>
       </c>
       <c r="AQ2">
-        <v>3.7760981046710471</v>
+        <v>3.7760980837570886</v>
       </c>
       <c r="AR2">
-        <v>6.538462778375691</v>
+        <v>6.5384626760566302</v>
       </c>
       <c r="AS2">
-        <v>2.6050944034218655</v>
+        <v>2.6050943886035118</v>
       </c>
       <c r="AU2">
-        <v>9.9358909596590941</v>
+        <v>9.9358909820767458</v>
       </c>
       <c r="AV2">
-        <v>1.6078614690324067</v>
+        <v>1.6078614607960204</v>
       </c>
       <c r="AW2">
-        <v>0.67326439436002816</v>
+        <v>0.67326438525972843</v>
       </c>
       <c r="AX2">
-        <v>0.20522527207846242</v>
+        <v>0.20522527183844361</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -646,118 +641,118 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.9767131604537038</v>
+        <v>8.9767131304216399</v>
       </c>
       <c r="C3">
-        <v>2.6537436386879678</v>
+        <v>2.6537436264988155</v>
       </c>
       <c r="E3">
-        <v>14.293067933140327</v>
+        <v>14.293067791066344</v>
       </c>
       <c r="F3">
-        <v>4.4428540605705837</v>
+        <v>4.4428540960216569</v>
       </c>
       <c r="G3">
-        <v>6.8923065036723514</v>
+        <v>6.892306442885956</v>
       </c>
       <c r="H3">
-        <v>16.490416861700766</v>
+        <v>16.49041672960896</v>
       </c>
       <c r="J3">
-        <v>8.4292548532337666</v>
+        <v>8.4292548082588183</v>
       </c>
       <c r="K3">
-        <v>6.606130265654504</v>
+        <v>6.6061302873249215</v>
       </c>
       <c r="L3">
-        <v>2.4397657301813336</v>
+        <v>2.439765719930608</v>
       </c>
       <c r="M3">
-        <v>9.6891230013742504</v>
+        <v>9.6902803521000358</v>
       </c>
       <c r="N3">
-        <v>0.51057941425745068</v>
+        <v>0.51057939332039604</v>
       </c>
       <c r="P3">
-        <v>4.8998040518096442</v>
+        <v>4.8998040738068571</v>
       </c>
       <c r="Q3">
-        <v>4.2029230348823736</v>
+        <v>4.2029229587724748</v>
       </c>
       <c r="R3">
-        <v>10.527404181675635</v>
+        <v>10.527404160095653</v>
       </c>
       <c r="W3">
-        <v>1.868890414312546</v>
+        <v>1.8688904161857873</v>
       </c>
       <c r="AA3">
-        <v>2.8689857433189969</v>
+        <v>2.868985838006143</v>
       </c>
       <c r="AB3">
-        <v>7.4446063809362188</v>
+        <v>7.444606311068986</v>
       </c>
       <c r="AC3">
-        <v>5.4533086543736342</v>
+        <v>5.4533086534906907</v>
       </c>
       <c r="AD3">
-        <v>7.3550131459518422</v>
+        <v>7.3550131108239514</v>
       </c>
       <c r="AE3">
-        <v>1.7236125432897942</v>
+        <v>1.7236125106318489</v>
       </c>
       <c r="AF3">
-        <v>1.5909781809560588</v>
+        <v>1.5909781405015613</v>
       </c>
       <c r="AG3">
-        <v>6.9509782175379105</v>
+        <v>6.9509782516442513</v>
       </c>
       <c r="AH3">
-        <v>3.1626182820117354</v>
+        <v>3.1626182298903229</v>
       </c>
       <c r="AI3">
-        <v>7.6563314906214703</v>
+        <v>7.6563314036397898</v>
       </c>
       <c r="AJ3">
-        <v>6.9864313594587246</v>
+        <v>6.9864312862055771</v>
       </c>
       <c r="AK3">
-        <v>3.7368812187592928</v>
+        <v>3.7368812757863195</v>
       </c>
       <c r="AL3">
-        <v>5.0004736027959114</v>
+        <v>5.0004735942152232</v>
       </c>
       <c r="AM3">
-        <v>0.44673890204515115</v>
+        <v>0.44673890480000134</v>
       </c>
       <c r="AN3">
-        <v>6.163879773823898</v>
+        <v>6.1638797954227664</v>
       </c>
       <c r="AO3">
-        <v>3.056031480560693</v>
+        <v>3.0560314520965286</v>
       </c>
       <c r="AP3">
-        <v>0.79265609457168262</v>
+        <v>0.79265609927941294</v>
       </c>
       <c r="AQ3">
-        <v>2.8166554223326679</v>
+        <v>2.8166553611032943</v>
       </c>
       <c r="AS3">
-        <v>0.57971070978059225</v>
+        <v>0.57971074341323869</v>
       </c>
       <c r="AT3">
-        <v>3.9138465303688812</v>
+        <v>3.9138464847988472</v>
       </c>
       <c r="AU3">
-        <v>9.1200135336081498</v>
+        <v>9.1200135289062647</v>
       </c>
       <c r="AV3">
-        <v>1.4803999337159066</v>
+        <v>1.480399925884968</v>
       </c>
       <c r="AW3">
-        <v>1.637647313145163</v>
+        <v>1.6376472852120394</v>
       </c>
       <c r="AX3">
-        <v>2.9673580647967599</v>
+        <v>2.9673580786133789</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.3569997047951259</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.8489212240909514</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>16.256866069090506</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.7886674035532923</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.955497529666033</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.1063764545270498</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>15.059806351623617</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.1533998126283835</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>13.552372257113552</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.641912450802314</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.5816344260051971</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.17292155090668623</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.7353847009518066</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.9866916146251654</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.8119885448775399</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>8.7625866212507884</v>
@@ -570,52 +465,55 @@
         <v>1.1258010049367086</v>
       </c>
       <c r="AA2">
-        <v>4.1226842706440152</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.47141636947266113</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.1589613072320688</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.9733415532450955</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.4865628008088887</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.5434458267282309</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.8873676885386779</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.8336867286747425</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>14.014390308007316</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.441409514609159</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.0553556191835112</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.7531598902683401</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.15343052869178794</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.592424634487986</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>5.3934204958644241</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.7760980837570886</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>6.5384626760566302</v>
@@ -635,106 +533,115 @@
       <c r="AX2">
         <v>0.20522527183844361</v>
       </c>
+      <c r="AY2">
+        <v>1.9296620280540526</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>8.9767131304216399</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.6537436264988155</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.293067791066344</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.4428540960216569</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>6.892306442885956</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>16.49041672960896</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.4292548082588183</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.6061302873249215</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.439765719930608</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.6902803521000358</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.51057939332039604</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4.8998040738068571</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.2029229587724748</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>10.527404160095653</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1.8688904161857873</v>
       </c>
       <c r="AA3">
-        <v>2.868985838006143</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.444606311068986</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.4533086534906907</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.3550131108239514</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.7236125106318489</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.5909781405015613</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.9509782516442513</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.1626182298903229</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.6563314036397898</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.9864312862055771</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.7368812757863195</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.0004735942152232</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.44673890480000134</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.1638797954227664</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.0560314520965286</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.79265609927941294</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.8166553611032943</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0.57971074341323869</v>
@@ -753,6 +660,9 @@
       </c>
       <c r="AX3">
         <v>2.9673580786133789</v>
+      </c>
+      <c r="AY3">
+        <v>11.584550672683326</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.3569997395889524</v>
-      </c>
-      <c r="C2">
-        <v>2.8489212540499143</v>
+        <v>3.7733248942804378</v>
       </c>
       <c r="D2">
-        <v>9.6970635379842349</v>
+        <v>3.592424634487986</v>
       </c>
       <c r="E2">
-        <v>9.7886674618476359</v>
+        <v>3.7760980837570886</v>
       </c>
       <c r="F2">
         <v>11.955497589138115</v>
@@ -645,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>8.9767131604537038</v>
-      </c>
       <c r="C3">
-        <v>2.6537436386879678</v>
+        <v>10.527404160095653</v>
+      </c>
+      <c r="D3">
+        <v>6.1638797954227664</v>
       </c>
       <c r="E3">
-        <v>14.293067933140327</v>
+        <v>2.0851055325291261</v>
       </c>
       <c r="F3">
         <v>4.4428540605705837</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.3569997395889524</v>
-      </c>
       <c r="C2">
-        <v>2.8489212540499143</v>
+        <v>3.7733248942804378</v>
       </c>
       <c r="D2">
-        <v>9.6970635379842349</v>
+        <v>0.15343052869178794</v>
       </c>
       <c r="E2">
-        <v>9.7886674618476359</v>
+        <v>3.592424634487986</v>
       </c>
       <c r="F2">
         <v>11.955497589138115</v>
@@ -646,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.9767131604537038</v>
-      </c>
-      <c r="C3">
-        <v>2.6537436386879678</v>
+        <v>0.51057939332039604</v>
+      </c>
+      <c r="D3">
+        <v>0.44673890480000134</v>
       </c>
       <c r="E3">
-        <v>14.293067933140327</v>
+        <v>6.1638797954227664</v>
       </c>
       <c r="F3">
         <v>4.4428540605705837</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,125 +512,128 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.3569997047951259</v>
+      </c>
       <c r="C2">
+        <v>2.8489212240909514</v>
+      </c>
+      <c r="D2">
+        <v>9.6970634997656937</v>
+      </c>
+      <c r="E2">
+        <v>9.7886674035532923</v>
+      </c>
+      <c r="F2">
+        <v>11.955497529666033</v>
+      </c>
+      <c r="G2">
+        <v>8.1063764545270498</v>
+      </c>
+      <c r="H2">
+        <v>15.059806351623617</v>
+      </c>
+      <c r="I2">
+        <v>3.1533998126283835</v>
+      </c>
+      <c r="J2">
+        <v>13.552372257113552</v>
+      </c>
+      <c r="K2">
+        <v>13.641912450802314</v>
+      </c>
+      <c r="L2">
+        <v>1.5816344260051971</v>
+      </c>
+      <c r="O2">
         <v>3.7733248942804378</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>6.9866916146251654</v>
+      </c>
+      <c r="Q2">
+        <v>3.8119885448775399</v>
+      </c>
+      <c r="S2">
+        <v>8.7625866212507884</v>
+      </c>
+      <c r="V2">
+        <v>16.568618884800468</v>
+      </c>
+      <c r="W2">
+        <v>4.3849352129762424</v>
+      </c>
+      <c r="X2">
+        <v>1.1258010049367086</v>
+      </c>
+      <c r="AA2">
+        <v>4.1226842706440152</v>
+      </c>
+      <c r="AB2">
+        <v>0.47141636947266113</v>
+      </c>
+      <c r="AC2">
+        <v>7.1589613072320688</v>
+      </c>
+      <c r="AD2">
+        <v>3.9733415532450955</v>
+      </c>
+      <c r="AE2">
+        <v>6.4865628008088887</v>
+      </c>
+      <c r="AF2">
+        <v>8.5434458267282309</v>
+      </c>
+      <c r="AG2">
+        <v>9.8873676885386779</v>
+      </c>
+      <c r="AH2">
+        <v>3.925889626622991</v>
+      </c>
+      <c r="AI2">
+        <v>14.014390308007316</v>
+      </c>
+      <c r="AJ2">
+        <v>12.441409514609159</v>
+      </c>
+      <c r="AK2">
+        <v>2.0553556191835112</v>
+      </c>
+      <c r="AL2">
+        <v>2.7531598902683401</v>
+      </c>
+      <c r="AM2">
         <v>0.15343052869178794</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.592424634487986</v>
       </c>
-      <c r="F2">
-        <v>11.955497589138115</v>
-      </c>
-      <c r="G2">
-        <v>8.1063764950483268</v>
-      </c>
-      <c r="H2">
-        <v>15.059806484031762</v>
-      </c>
-      <c r="I2">
-        <v>3.1533997963331779</v>
-      </c>
-      <c r="J2">
-        <v>13.552372325537467</v>
-      </c>
-      <c r="K2">
-        <v>13.641912610494231</v>
-      </c>
-      <c r="L2">
-        <v>1.5816344454814715</v>
-      </c>
-      <c r="O2">
-        <v>3.7733249440630261</v>
-      </c>
-      <c r="P2">
-        <v>6.9866917383271723</v>
-      </c>
-      <c r="Q2">
-        <v>3.8119885891124916</v>
-      </c>
-      <c r="S2">
-        <v>8.7625884796968379</v>
-      </c>
-      <c r="V2">
-        <v>16.568618973555903</v>
-      </c>
-      <c r="W2">
-        <v>4.3849352273503488</v>
-      </c>
-      <c r="X2">
-        <v>1.1258010500256392</v>
-      </c>
-      <c r="AA2">
-        <v>4.1226842647298012</v>
-      </c>
-      <c r="AB2">
-        <v>0.47141638857305396</v>
-      </c>
-      <c r="AC2">
-        <v>7.1589613429531749</v>
-      </c>
-      <c r="AD2">
-        <v>3.9733415961913421</v>
-      </c>
-      <c r="AE2">
-        <v>6.4865628911207223</v>
-      </c>
-      <c r="AF2">
-        <v>8.5434458292884852</v>
-      </c>
-      <c r="AG2">
-        <v>9.8873675671113865</v>
-      </c>
-      <c r="AH2">
-        <v>3.9258896099622547</v>
-      </c>
-      <c r="AI2">
-        <v>14.01439026733107</v>
-      </c>
-      <c r="AJ2">
-        <v>12.441409633092357</v>
-      </c>
-      <c r="AK2">
-        <v>2.0553556199843017</v>
-      </c>
-      <c r="AL2">
-        <v>2.7531598838350848</v>
-      </c>
-      <c r="AM2">
-        <v>0.15343052731712867</v>
-      </c>
-      <c r="AN2">
-        <v>3.5924246315346346</v>
-      </c>
       <c r="AO2">
-        <v>5.3934205218312057</v>
+        <v>5.3934204958644241</v>
       </c>
       <c r="AQ2">
-        <v>3.7760981046710471</v>
+        <v>3.7760980837570886</v>
       </c>
       <c r="AR2">
-        <v>6.538462778375691</v>
+        <v>6.5384626760566302</v>
       </c>
       <c r="AS2">
-        <v>2.6050944034218655</v>
+        <v>2.6050943886035118</v>
       </c>
       <c r="AU2">
-        <v>9.9358909596590941</v>
+        <v>9.9358909820767458</v>
       </c>
       <c r="AV2">
-        <v>1.6078614690324067</v>
+        <v>1.6078614607960204</v>
       </c>
       <c r="AW2">
-        <v>0.67326439436002816</v>
+        <v>0.67326438525972843</v>
       </c>
       <c r="AX2">
-        <v>0.20522527207846242</v>
+        <v>0.20522527183844361</v>
       </c>
       <c r="AY2">
-        <v>1.9296620849537107</v>
+        <v>1.9296620280540526</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -638,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>8.9767131304216399</v>
+      </c>
+      <c r="C3">
+        <v>2.6537436264988155</v>
+      </c>
+      <c r="E3">
+        <v>14.293067791066344</v>
+      </c>
+      <c r="F3">
+        <v>4.4428540960216569</v>
+      </c>
+      <c r="G3">
+        <v>6.892306442885956</v>
+      </c>
+      <c r="H3">
+        <v>16.49041672960896</v>
+      </c>
+      <c r="J3">
+        <v>8.4292548082588183</v>
+      </c>
+      <c r="K3">
+        <v>6.6061302873249215</v>
+      </c>
+      <c r="L3">
+        <v>2.439765719930608</v>
+      </c>
+      <c r="M3">
+        <v>9.6902803521000358</v>
+      </c>
+      <c r="N3">
         <v>0.51057939332039604</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>4.8998040738068571</v>
+      </c>
+      <c r="Q3">
+        <v>4.2029229587724748</v>
+      </c>
+      <c r="R3">
+        <v>10.527404160095653</v>
+      </c>
+      <c r="W3">
+        <v>1.6576632659627279</v>
+      </c>
+      <c r="AA3">
+        <v>2.868985838006143</v>
+      </c>
+      <c r="AB3">
+        <v>7.444606311068986</v>
+      </c>
+      <c r="AC3">
+        <v>6.3479186859771168</v>
+      </c>
+      <c r="AD3">
+        <v>7.3550131108239514</v>
+      </c>
+      <c r="AE3">
+        <v>1.7236125106318489</v>
+      </c>
+      <c r="AF3">
+        <v>1.5909781405015613</v>
+      </c>
+      <c r="AG3">
+        <v>6.9509782516442513</v>
+      </c>
+      <c r="AH3">
+        <v>1.386286437676691</v>
+      </c>
+      <c r="AI3">
+        <v>7.6563314036397898</v>
+      </c>
+      <c r="AJ3">
+        <v>6.9864312862055771</v>
+      </c>
+      <c r="AK3">
+        <v>3.7368812757863195</v>
+      </c>
+      <c r="AL3">
+        <v>5.0004735942152232</v>
+      </c>
+      <c r="AM3">
         <v>0.44673890480000134</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.1638797954227664</v>
       </c>
-      <c r="F3">
-        <v>4.4428540605705837</v>
-      </c>
-      <c r="G3">
-        <v>6.8923065036723514</v>
-      </c>
-      <c r="H3">
-        <v>16.490416861700766</v>
-      </c>
-      <c r="J3">
-        <v>8.4292548532337666</v>
-      </c>
-      <c r="K3">
-        <v>6.606130265654504</v>
-      </c>
-      <c r="L3">
-        <v>2.4397657301813336</v>
-      </c>
-      <c r="M3">
-        <v>9.6891230013742504</v>
-      </c>
-      <c r="N3">
-        <v>0.51057941425745068</v>
-      </c>
-      <c r="P3">
-        <v>4.8998040518096442</v>
-      </c>
-      <c r="Q3">
-        <v>4.2029230348823736</v>
-      </c>
-      <c r="R3">
-        <v>10.527404181675635</v>
-      </c>
-      <c r="W3">
-        <v>1.6576632720392588</v>
-      </c>
-      <c r="AA3">
-        <v>2.8689857433189969</v>
-      </c>
-      <c r="AB3">
-        <v>7.4446063809362188</v>
-      </c>
-      <c r="AC3">
-        <v>6.3479186553630571</v>
-      </c>
-      <c r="AD3">
-        <v>7.3550131459518422</v>
-      </c>
-      <c r="AE3">
-        <v>1.7236125432897942</v>
-      </c>
-      <c r="AF3">
-        <v>1.5909781809560588</v>
-      </c>
-      <c r="AG3">
-        <v>6.9509782175379105</v>
-      </c>
-      <c r="AH3">
-        <v>1.3862864674737243</v>
-      </c>
-      <c r="AI3">
-        <v>7.6563314906214703</v>
-      </c>
-      <c r="AJ3">
-        <v>6.9864313594587246</v>
-      </c>
-      <c r="AK3">
-        <v>3.7368812187592928</v>
-      </c>
-      <c r="AL3">
-        <v>5.0004736027959114</v>
-      </c>
-      <c r="AM3">
-        <v>0.44673890204515115</v>
-      </c>
-      <c r="AN3">
-        <v>6.163879773823898</v>
-      </c>
       <c r="AO3">
-        <v>3.056031480560693</v>
+        <v>3.0560314520965286</v>
       </c>
       <c r="AP3">
-        <v>0.76603439896141678</v>
+        <v>0.7660343646406621</v>
       </c>
       <c r="AQ3">
-        <v>2.0851055900381725</v>
+        <v>2.0851055325291261</v>
       </c>
       <c r="AS3">
-        <v>0.57971070978059225</v>
+        <v>0.57971074341323869</v>
       </c>
       <c r="AT3">
-        <v>3.9138465303688812</v>
+        <v>3.9138464847988472</v>
       </c>
       <c r="AU3">
-        <v>9.1200135336081498</v>
+        <v>9.1200135289062647</v>
       </c>
       <c r="AV3">
-        <v>1.4803999337159066</v>
+        <v>1.480399925884968</v>
       </c>
       <c r="AW3">
-        <v>1.637647313145163</v>
+        <v>1.6376472852120394</v>
       </c>
       <c r="AX3">
-        <v>2.9673580647967599</v>
+        <v>2.9673580786133789</v>
       </c>
       <c r="AY3">
-        <v>11.584550775395577</v>
+        <v>11.584550672683326</v>
       </c>
     </row>
   </sheetData>
